--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,40 +543,40 @@
         <v>0.007475</v>
       </c>
       <c r="I2">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J2">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N2">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="O2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q2">
-        <v>0.000418712125</v>
+        <v>0.0003154807138888889</v>
       </c>
       <c r="R2">
-        <v>0.003768409125</v>
+        <v>0.002839326425</v>
       </c>
       <c r="S2">
-        <v>0.002366473901186061</v>
+        <v>0.0156191682572807</v>
       </c>
       <c r="T2">
-        <v>0.002366473901186061</v>
+        <v>0.0156191682572807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>0.007475</v>
       </c>
       <c r="I3">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J3">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N3">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="O3">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P3">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q3">
-        <v>0.0008081255722222222</v>
+        <v>0.0008081255722222223</v>
       </c>
       <c r="R3">
-        <v>0.007273130149999999</v>
+        <v>0.00727313015</v>
       </c>
       <c r="S3">
-        <v>0.00456735776530221</v>
+        <v>0.04000957500684383</v>
       </c>
       <c r="T3">
-        <v>0.00456735776530221</v>
+        <v>0.04000957500684382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +667,40 @@
         <v>0.007475</v>
       </c>
       <c r="I4">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J4">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N4">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="O4">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P4">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q4">
-        <v>3.692982222222222E-05</v>
+        <v>0.0001406388027777778</v>
       </c>
       <c r="R4">
-        <v>0.0003323684</v>
+        <v>0.001265749225</v>
       </c>
       <c r="S4">
-        <v>0.0002087196793365606</v>
+        <v>0.00696290146237682</v>
       </c>
       <c r="T4">
-        <v>0.0002087196793365606</v>
+        <v>0.00696290146237682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +729,10 @@
         <v>0.007475</v>
       </c>
       <c r="I5">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J5">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N5">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="O5">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P5">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q5">
-        <v>0.002830507586111111</v>
+        <v>0.002038730669444445</v>
       </c>
       <c r="R5">
-        <v>0.025474568275</v>
+        <v>0.018348576025</v>
       </c>
       <c r="S5">
-        <v>0.01599744055570662</v>
+        <v>0.1009357338038305</v>
       </c>
       <c r="T5">
-        <v>0.01599744055570662</v>
+        <v>0.1009357338038305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.01274533333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.03823600000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.8364726214696682</v>
+      </c>
+      <c r="J6">
+        <v>0.8364726214696681</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.002491666666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.007475</v>
-      </c>
-      <c r="I6">
-        <v>0.02766080269984236</v>
-      </c>
-      <c r="J6">
-        <v>0.02766080269984236</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.321026</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="N6">
-        <v>0.9630780000000001</v>
+        <v>0.379843</v>
       </c>
       <c r="O6">
-        <v>0.163437440603872</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="P6">
-        <v>0.163437440603872</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="Q6">
-        <v>0.0007998897833333334</v>
+        <v>0.001613741883111111</v>
       </c>
       <c r="R6">
-        <v>0.00719900805</v>
+        <v>0.014523676948</v>
       </c>
       <c r="S6">
-        <v>0.004520810798310908</v>
+        <v>0.0798949187271418</v>
       </c>
       <c r="T6">
-        <v>0.004520810798310908</v>
+        <v>0.07989491872714179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H7">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I7">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J7">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.168045</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N7">
-        <v>0.504135</v>
+        <v>0.972994</v>
       </c>
       <c r="O7">
-        <v>0.08555333432892558</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="P7">
-        <v>0.08555333432892558</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="Q7">
-        <v>0.014718669445</v>
+        <v>0.004133710953777779</v>
       </c>
       <c r="R7">
-        <v>0.132468025005</v>
+        <v>0.03720339858400001</v>
       </c>
       <c r="S7">
-        <v>0.08318686042773951</v>
+        <v>0.2046563357808269</v>
       </c>
       <c r="T7">
-        <v>0.08318686042773951</v>
+        <v>0.2046563357808268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +900,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H8">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I8">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J8">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3243313333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="N8">
-        <v>0.9729939999999999</v>
+        <v>0.169331</v>
       </c>
       <c r="O8">
-        <v>0.1651202177631757</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="P8">
-        <v>0.1651202177631757</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="Q8">
-        <v>0.02840742471355555</v>
+        <v>0.0007193933462222224</v>
       </c>
       <c r="R8">
-        <v>0.255666822422</v>
+        <v>0.006474540116000001</v>
       </c>
       <c r="S8">
-        <v>0.1605528599978735</v>
+        <v>0.03561652178132978</v>
       </c>
       <c r="T8">
-        <v>0.1605528599978735</v>
+        <v>0.03561652178132978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,179 +962,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.01274533333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.03823600000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8364726214696682</v>
+      </c>
+      <c r="J9">
+        <v>0.8364726214696681</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0.08758766666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.262763</v>
-      </c>
-      <c r="I9">
-        <v>0.9723391973001576</v>
-      </c>
-      <c r="J9">
-        <v>0.9723391973001576</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.01482133333333333</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="N9">
-        <v>0.044464</v>
+        <v>2.454659</v>
       </c>
       <c r="O9">
-        <v>0.007545684107632572</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="P9">
-        <v>0.007545684107632572</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="Q9">
-        <v>0.001298166003555555</v>
+        <v>0.01042848239155556</v>
       </c>
       <c r="R9">
-        <v>0.011683494032</v>
+        <v>0.09385634152400001</v>
       </c>
       <c r="S9">
-        <v>0.007336964428296011</v>
+        <v>0.5163048451803698</v>
       </c>
       <c r="T9">
-        <v>0.007336964428296011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.08758766666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.262763</v>
-      </c>
-      <c r="I10">
-        <v>0.9723391973001576</v>
-      </c>
-      <c r="J10">
-        <v>0.9723391973001576</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.135989666666667</v>
-      </c>
-      <c r="N10">
-        <v>3.407969</v>
-      </c>
-      <c r="O10">
-        <v>0.5783433231963941</v>
-      </c>
-      <c r="P10">
-        <v>0.5783433231963941</v>
-      </c>
-      <c r="Q10">
-        <v>0.09949868426077778</v>
-      </c>
-      <c r="R10">
-        <v>0.8954881583469999</v>
-      </c>
-      <c r="S10">
-        <v>0.5623458826406875</v>
-      </c>
-      <c r="T10">
-        <v>0.5623458826406875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.08758766666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.262763</v>
-      </c>
-      <c r="I11">
-        <v>0.9723391973001576</v>
-      </c>
-      <c r="J11">
-        <v>0.9723391973001576</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.321026</v>
-      </c>
-      <c r="N11">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="P11">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="Q11">
-        <v>0.02811791827933333</v>
-      </c>
-      <c r="R11">
-        <v>0.253061264514</v>
-      </c>
-      <c r="S11">
-        <v>0.1589166298055611</v>
-      </c>
-      <c r="T11">
-        <v>0.1589166298055611</v>
+        <v>0.5163048451803696</v>
       </c>
     </row>
   </sheetData>
